--- a/biology/Médecine/Anders_Retzius/Anders_Retzius.xlsx
+++ b/biology/Médecine/Anders_Retzius/Anders_Retzius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anders Adolf Retzius, né le 13 octobre 1796 à Lund et mort le 18 avril 1860 à Stockholm, est un anatomiste et professeur d’anatomie suédois, qui fut aussi directeur d’études à l’Institut Karolinska de Stockholm, en Suède.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Inscrit à l'université de Lund en 1812, il y étudia la médecine et la chirurgie, tout en suivant également des cours d’anatomie comparée à l’Université de Copenhague. 
 Ayant obtenu son titre de docteur en médecine en 1818, il devient rapidement, dès 1824, grâce à son ami Jöns Jakob Berzelius, professeur temporaire d’anatomie à l'Institut Karolinska, une université de médecine à laquelle il se consacre durant de nombreuses années. En 1830, il y devient directeur d’études temporaire avant de devenir en 1840 professeur ordinaire et directeur d’études ordinaire.
